--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="760" windowWidth="24560" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="24560" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别的收票" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="188">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -193,9 +193,721 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(个)内部代表</t>
+    <t>(个)其他</t>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利费</t>
+    <rPh sb="0" eb="1">
+      <t>fu li fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务费</t>
+    <rPh sb="0" eb="1">
+      <t>lao wu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招待费</t>
+    <rPh sb="0" eb="1">
+      <t>zhao dai fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公费</t>
+    <rPh sb="0" eb="1">
+      <t>ban gong fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+    <rPh sb="0" eb="1">
+      <t>kuai di f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修费</t>
+    <rPh sb="0" eb="1">
+      <t>wei xiu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财产保险费</t>
+    <rPh sb="0" eb="1">
+      <t>cai chan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao xian fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备租赁费</t>
+    <rPh sb="0" eb="1">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu lin fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行费用</t>
+    <rPh sb="0" eb="1">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费</t>
+    <rPh sb="0" eb="1">
+      <t>chai lü fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <rPh sb="0" eb="1">
+      <t>jiao tong fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路桥费</t>
+    <rPh sb="0" eb="1">
+      <t>lu qiao fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车维修费</t>
+    <rPh sb="0" eb="1">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei xiu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车保险费</t>
+    <rPh sb="0" eb="1">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao xian fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流费</t>
+    <rPh sb="0" eb="1">
+      <t>wu liu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租费</t>
+    <rPh sb="0" eb="1">
+      <t>fang zu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费</t>
+    <rPh sb="0" eb="1">
+      <t>wu ye fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <rPh sb="0" eb="1">
+      <t>shui fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <rPh sb="0" eb="1">
+      <t>dian fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储费</t>
+    <rPh sb="0" eb="1">
+      <t>cang chu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修费</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang xiu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告费</t>
+    <rPh sb="0" eb="1">
+      <t>guang gao fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传费</t>
+    <rPh sb="0" eb="1">
+      <t>xuan chuan fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发费</t>
+    <rPh sb="0" eb="1">
+      <t>yan fa fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议费</t>
+    <rPh sb="0" eb="1">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费</t>
+    <rPh sb="0" eb="1">
+      <t>fu wu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询费</t>
+    <rPh sb="0" eb="1">
+      <t>zi xun fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证费</t>
+    <rPh sb="0" eb="1">
+      <t>ren zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利费</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会经理</t>
+    <rPh sb="0" eb="1">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政罚款</t>
+    <rPh sb="0" eb="1">
+      <t>xing zhng fa k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务滞纳金</t>
+    <rPh sb="0" eb="1">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi na j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税</t>
+    <rPh sb="0" eb="1">
+      <t>yin hua s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残保金</t>
+    <rPh sb="0" eb="1">
+      <t>can bao j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免税款</t>
+    <rPh sb="0" eb="1">
+      <t>jian mian shui k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料</t>
+    <rPh sb="0" eb="1">
+      <t>yuan cai l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品产品</t>
+    <rPh sb="0" eb="1">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理部门</t>
+    <rPh sb="0" eb="1">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门</t>
+    <rPh sb="0" eb="1">
+      <t>xiao sh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽油费</t>
+    <rPh sb="0" eb="1">
+      <t>qi you fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有形动产租赁</t>
+    <rPh sb="0" eb="1">
+      <t>you xing dong chan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输服务</t>
+    <rPh sb="0" eb="1">
+      <t>yun shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信服务</t>
+    <rPh sb="0" eb="1">
+      <t>dian xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑安装服务</t>
+    <rPh sb="0" eb="1">
+      <t>jian zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an zhuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融保险服务</t>
+    <rPh sb="0" eb="1">
+      <t>jin rong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活服务</t>
+    <rPh sb="0" eb="1">
+      <t>sheng huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物及加工，修理修配劳务</t>
+    <rPh sb="0" eb="1">
+      <t>huo wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia gong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiu li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu pei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lao wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动产租赁</t>
+    <rPh sb="0" eb="1">
+      <t>bu dong c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活服务</t>
+    <rPh sb="0" eb="1">
+      <t>sehng huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑安装服务</t>
+    <rPh sb="0" eb="1">
+      <t>jian zh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an zhuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动产租赁服务</t>
+    <rPh sb="0" eb="1">
+      <t>bu dong chan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu lin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有形动产租赁</t>
+    <rPh sb="0" eb="1">
+      <t>you xing dong chan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记专票收票</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
     <rPh sb="1" eb="2">
-      <t>ge</t>
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sho p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记普票收票</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="1">
+      <t>cheng gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税控自开</t>
+    <rPh sb="0" eb="1">
+      <t>shui k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务代开</t>
+    <rPh sb="0" eb="1">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部门</t>
+    <rPh sb="0" eb="1">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
+    <rPh sb="0" eb="1">
+      <t>wu p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开发票</t>
+    <rPh sb="0" eb="1">
+      <t>wei kai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记普票开票</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记专票开票</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记无票开票</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="1">
+      <t>cheng g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，福利费，福利费56020104-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>nei bu</t>
@@ -203,364 +915,38 @@
     <rPh sb="5" eb="6">
       <t>dai b</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(个)其他</t>
+    <rPh sb="8" eb="9">
+      <t>fu li fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>f li fei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jie ru k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，劳务费，劳务费56020105－临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
     <rPh sb="3" eb="4">
       <t>qi ta</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利费</t>
-    <rPh sb="0" eb="1">
-      <t>fu li fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳务费</t>
-    <rPh sb="0" eb="1">
-      <t>lao wu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招待费</t>
-    <rPh sb="0" eb="1">
-      <t>zhao dai fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公费</t>
-    <rPh sb="0" eb="1">
-      <t>ban gong fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递费</t>
-    <rPh sb="0" eb="1">
-      <t>kuai di f</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修费</t>
-    <rPh sb="0" eb="1">
-      <t>wei xiu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财产保险费</t>
-    <rPh sb="0" eb="1">
-      <t>cai chan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao xian fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备租赁费</t>
-    <rPh sb="0" eb="1">
-      <t>she bei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zu lin fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行费用</t>
-    <rPh sb="0" eb="1">
-      <t>yin hang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅费</t>
-    <rPh sb="0" eb="1">
-      <t>chai lü fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通费</t>
-    <rPh sb="0" eb="1">
-      <t>jiao tong fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路桥费</t>
-    <rPh sb="0" eb="1">
-      <t>lu qiao fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车维修费</t>
-    <rPh sb="0" eb="1">
-      <t>qi che</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei xiu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车保险费</t>
-    <rPh sb="0" eb="1">
-      <t>qi che</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao xian fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流费</t>
-    <rPh sb="0" eb="1">
-      <t>wu liu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租费</t>
-    <rPh sb="0" eb="1">
-      <t>fang zu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业费</t>
-    <rPh sb="0" eb="1">
-      <t>wu ye fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水费</t>
-    <rPh sb="0" eb="1">
-      <t>shui fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费</t>
-    <rPh sb="0" eb="1">
-      <t>dian fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储费</t>
-    <rPh sb="0" eb="1">
-      <t>cang chu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修费</t>
-    <rPh sb="0" eb="1">
-      <t>zhuang xiu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告费</t>
-    <rPh sb="0" eb="1">
-      <t>guang gao fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣传费</t>
-    <rPh sb="0" eb="1">
-      <t>xuan chuan fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发费</t>
-    <rPh sb="0" eb="1">
-      <t>yan fa fe</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议费</t>
-    <rPh sb="0" eb="1">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务费</t>
-    <rPh sb="0" eb="1">
-      <t>fu wu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询费</t>
-    <rPh sb="0" eb="1">
-      <t>zi xun fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证费</t>
-    <rPh sb="0" eb="1">
-      <t>ren zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专利费</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工会经理</t>
-    <rPh sb="0" eb="1">
-      <t>gong hui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jing li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <rPh sb="0" eb="1">
-      <t>qi ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政罚款</t>
-    <rPh sb="0" eb="1">
-      <t>xing zhng fa k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务滞纳金</t>
-    <rPh sb="0" eb="1">
-      <t>shui wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi na j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印花税</t>
-    <rPh sb="0" eb="1">
-      <t>yin hua s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残保金</t>
-    <rPh sb="0" eb="1">
-      <t>can bao j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减免税款</t>
-    <rPh sb="0" eb="1">
-      <t>jian mian shui k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原材料</t>
-    <rPh sb="0" eb="1">
-      <t>yuan cai l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品产品</t>
-    <rPh sb="0" eb="1">
-      <t>shang p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chan p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理部门</t>
-    <rPh sb="0" eb="1">
-      <t>guan li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部门</t>
-    <rPh sb="0" eb="1">
-      <t>xiao sh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普票－内部代表－福利费</t>
+    <rPh sb="6" eb="7">
+      <t>lao wu f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lao wu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，招待费，招待费56020201-临时借入款22410101</t>
     <rPh sb="0" eb="1">
       <t>pu p</t>
     </rPh>
@@ -571,25 +957,15 @@
       <t>dai b</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>fu li fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普票－其他－劳务费</t>
-    <rPh sb="0" eb="1">
-      <t>pu p</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qi ta</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>lao wu fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普票－内部代表－招待费</t>
+      <t>zhao dai f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhao dai f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，快递费，快递费56020203-临时借入款22410101</t>
     <rPh sb="0" eb="1">
       <t>pu p</t>
     </rPh>
@@ -600,366 +976,1453 @@
       <t>dai b</t>
     </rPh>
     <rPh sb="8" eb="9">
+      <t>kuai di f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kuai di f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，办公费，办公费56020202-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban gong f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ban gong f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，维修费，维修费56020204-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei xiu f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei xiu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，财产保险费，财产保险费56020206-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai chan bao xian f</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai chan bao xian f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，设备租赁费，设备租赁费56020207-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu lin f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zu lin f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，银行费用，手续费560302-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou xu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，差旅费，差旅费56020301-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chai lü f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chai lü f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，交通费，交通费56020302-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao tong f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao tong f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，汽油费，汽油费56020303-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi you f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi you f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，汽车维修费，汽车维修费56020305-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei xiu fi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，路桥费，路桥费56020304－临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lu qiao f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu qiao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，汽车保险费，汽车保险费56020306-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao xian f</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qi che bao x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，物流费，物流费56020307-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu liu f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu liu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，物业费，物业费56020402-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu ye f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu ye f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，房租费，房租费56020401-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang zu f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang zu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，水费，水费56020403-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shui fei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shui fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，电费，电费56020404-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian fei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，仓储费，仓储费56020405-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cang chu fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cang chu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，装修费，装修费56020406-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang xiu fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuang xiu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，广告费，广告费56020501-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang gao fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guang gao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，宣传费，宣传费56020502-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xuan chuan f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xuan chuan f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，研发费，研发费56020503-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan fa f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yan fa f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，会议费，会议费56020504-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui yi f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui yi f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，服务费，服务费56020505-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu wu f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu wu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，咨询费，咨询费56020506-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi xun f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi xun f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，认证费，认证费56020507-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren zheng fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren zheng f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，专利费，专利费56020508-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan li fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuan li fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，工会经费，工会经费56020509-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing fei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong hui jing fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，其他，其他560299-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，行政罚款，行政罚款571106-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing zheng fa kuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xing zheng fa k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，税务滞纳金，税务滞纳金571105-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi na jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shui wu zhi na j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，印花税，印花税560309-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin hua s</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin hua s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，残保金，残保金540314-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>can bao j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>can bao j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，原材料，原材料140301-单位220201</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan cai l</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yuan cai l</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，商品产品，库存商品140501-单位220202</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ku cun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，其他，福利费，福利费56020104、待抵扣进项税1221033-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu li fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu li fei</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dai di k</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jin xiang s</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jie ru k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，招待费，招待费56020201、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>zhao dai f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专票</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽油费</t>
-    <rPh sb="0" eb="1">
-      <t>qi you fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有形动产租赁</t>
-    <rPh sb="0" eb="1">
-      <t>you xing dong chan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zu lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输服务</t>
-    <rPh sb="0" eb="1">
-      <t>yun shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电信服务</t>
-    <rPh sb="0" eb="1">
-      <t>dian xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑安装服务</t>
-    <rPh sb="0" eb="1">
-      <t>jian zhu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>an zhuang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融保险服务</t>
-    <rPh sb="0" eb="1">
-      <t>jin rong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活服务</t>
-    <rPh sb="0" eb="1">
-      <t>sheng huo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物及加工，修理修配劳务</t>
-    <rPh sb="0" eb="1">
-      <t>huo wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jia gong</t>
+    <rPh sb="12" eb="13">
+      <t>zhao dai f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，办公费，办公费56020202、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>xiu li</t>
+      <t>ban gong f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ban gong f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，快递费，快递费56020203、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai b</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>xiu pei</t>
+      <t>kuai di f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kuai di f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，维修费，维修费56020204、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei xiu f</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>lao wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产租赁</t>
-    <rPh sb="0" eb="1">
-      <t>bu dong c</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zu lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活服务</t>
-    <rPh sb="0" eb="1">
-      <t>sehng huo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑安装服务</t>
-    <rPh sb="0" eb="1">
-      <t>jian zh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>an zhuang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产租赁服务</t>
-    <rPh sb="0" eb="1">
-      <t>bu dong chan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zu lin</t>
+      <t>wei xiu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，财产保险费，财产保险费56020206、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>fu wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <rPh sb="0" eb="1">
-      <t>qi t</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有形动产租赁</t>
-    <rPh sb="0" eb="1">
-      <t>you xing dong chan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zu l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记专票收票</t>
-    <rPh sb="0" eb="1">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhuan p</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sho p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记普票收票</t>
-    <rPh sb="0" eb="1">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pu p</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <rPh sb="0" eb="1">
-      <t>cheng gong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税控自开</t>
-    <rPh sb="0" eb="1">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai chan bao xian f</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai chan bao xian f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，设备租赁费，设备租赁费56020207、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu lin f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>she bei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zu lin f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，银行费用，手续费560302、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou xu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，差旅费，差旅费56020301、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chai lü f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chai lü f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，交通费，交通费56020302、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao tong f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao tong f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，汽油费，汽油费56020303、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi you f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi you f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，路桥费，路桥费56020304、待抵扣进项税122103－临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lu qiao f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu qiao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，汽车维修费，汽车维修费56020305、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei xiu fi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，汽车保险费，汽车保险费56020306、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao xian f</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qi che bao x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，物流费，物流费56020307、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu liu f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu liu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，房租费，房租费56020401、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang zu f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang zu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，物业费，物业费56020402、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu ye f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu ye f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，水费，水费56020403、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shui fei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shui fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，电费，电费56020404、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian fei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，仓储费，仓储费56020405、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cang chu fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cang chu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，装修费，装修费56020406、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang xiu fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuang xiu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，广告费，广告费56020501、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guang gao fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guang gao f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，宣传费，宣传费56020502、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xuan chuan f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xuan chuan f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，研发费，研发费56020503、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan fa f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yan fa f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，会议费，会议费56020504、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui yi f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui yi f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，服务费，服务费56020505、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu wu f</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu wu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，咨询费，咨询费56020506、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi xun f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi xun f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，认证费，认证费56020507、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren zheng fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren zheng f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，专利费，专利费56020508、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan li fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuan li fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，其他，其他560299、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，原材料，原材料140301、待抵扣进项税1221033-单位220201</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan cai l</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yuan cai l</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，其他，商品产品，库存商品140501、待抵扣进项税1221033-单位220202</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan p</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ku cun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，工会经费，工会经费56020509、待抵扣进项税122103-临时借入款22410101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing fei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong hui jing fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，内部代表，减免税款，减免税款222117-临时借入款22410102</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian mian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>shui k</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="13" eb="14">
+      <t>jian mian shui k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，税控自开，其他，商品销售，单位112201－商品销售收入500101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>zi k</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务代开</t>
-    <rPh sb="0" eb="1">
-      <t>shui wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dai k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品销售</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>shang p</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="13" eb="14">
       <t>xiao shou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务收入</t>
-    <rPh sb="0" eb="1">
-      <t>fu wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="16" eb="17">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sahng p</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
       <t>shou ru</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售部门</t>
-    <rPh sb="0" eb="1">
+    <t>普票，税务代开，内部代表，服务收入，单位112201－服务收入500103、销项税22210106</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui wu dai k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu wu shou ru</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>fu wu shjou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，税控自开，其他，商品销售，单位112201－商品销售收入500101、销项税22210106</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>xiao shou</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无票</t>
-    <rPh sb="0" eb="1">
-      <t>wu p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开发票</t>
-    <rPh sb="0" eb="1">
-      <t>wei kai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="16" eb="17">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sahng p</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税控自开，其他，商品销售，单位112201－商品销售收入500101</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sahng p</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税务代开，内部代表，服务收入，单位112201－服务收入500103、销项税22210106</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui wu dai k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu wu shou ru</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>fu wu shjou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税控自开，其他，商品销售，单位112201－商品销售收入500101、销项税22210106</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sahng p</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，不开发票，其他，商品销售，单位112201－商品销售收入500101</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>fa p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记普票开票</t>
-    <rPh sb="0" eb="1">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pu p</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记专票开票</t>
-    <rPh sb="0" eb="1">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhuan p</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记无票开票</t>
-    <rPh sb="0" eb="1">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wu p</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <rPh sb="0" eb="1">
-      <t>cheng g</t>
-    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>sahng p</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，不开发票，内部代表，服务收入，单位112201－服务收入500103、销项税22210106</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu ukai fa p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu wu shou ru</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>fu wu shjou ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(个)内部代表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,11 +2800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,10 +2814,10 @@
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -1397,30 +2860,30 @@
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
-        <v>100.34</v>
+        <v>100.22</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1428,30 +2891,30 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
-        <v>203.23</v>
+        <v>200.33</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1459,30 +2922,30 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <v>306.12</v>
+        <v>300.44</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1490,30 +2953,30 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
-        <v>409.01</v>
+        <v>400.55</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1521,30 +2984,30 @@
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
-        <v>511.9</v>
+        <v>500.66</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1552,30 +3015,30 @@
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
-        <v>614.79</v>
+        <v>600.77</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1583,30 +3046,30 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
-        <v>717.68</v>
+        <v>700.88</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1614,30 +3077,30 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <v>820.57</v>
+        <v>800.99</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1645,30 +3108,30 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <v>923.46</v>
+        <v>901.1</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1676,30 +3139,30 @@
         <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>1026.3499999999999</v>
+        <v>1001.21</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1707,30 +3170,30 @@
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>1129.24</v>
+        <v>1101.32</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1738,30 +3201,30 @@
         <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <v>1232.1300000000001</v>
+        <v>1201.43</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1769,30 +3232,30 @@
         <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <v>1335.02</v>
+        <v>1301.54</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1800,30 +3263,30 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>1437.91</v>
+        <v>1401.65</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1831,30 +3294,30 @@
         <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
-        <v>1540.8</v>
+        <v>1501.76</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1862,30 +3325,30 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <v>1643.69</v>
+        <v>1601.87</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1893,30 +3356,30 @@
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>1746.58</v>
+        <v>1701.98</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1924,30 +3387,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <v>1849.47</v>
+        <v>1802.09</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1955,30 +3418,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>1952.36</v>
+        <v>1902.2</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1986,30 +3449,30 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>2055.25</v>
+        <v>2002.31</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2017,30 +3480,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>2158.14</v>
+        <v>2102.42</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2048,30 +3511,30 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>2261.0300000000002</v>
+        <v>2202.5300000000002</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2079,30 +3542,30 @@
         <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>2363.92</v>
+        <v>2302.64</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2110,30 +3573,30 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
-        <v>2466.81</v>
+        <v>2402.75</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2141,30 +3604,30 @@
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6">
-        <v>2569.6999999999998</v>
+        <v>2502.86</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2172,30 +3635,30 @@
         <v>18</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6">
-        <v>2672.59</v>
+        <v>2602.9699999999998</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2203,30 +3666,30 @@
         <v>18</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
-        <v>2775.48</v>
+        <v>2703.08</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2234,30 +3697,30 @@
         <v>18</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>2878.37</v>
+        <v>2803.19</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2265,30 +3728,30 @@
         <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>2981.26</v>
+        <v>2903.3</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2296,30 +3759,30 @@
         <v>18</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>3084.15</v>
+        <v>3003.41</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2327,30 +3790,30 @@
         <v>18</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
-        <v>3187.04</v>
+        <v>3103.52</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2358,30 +3821,30 @@
         <v>18</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6">
-        <v>3289.93</v>
+        <v>3203.63</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2389,30 +3852,30 @@
         <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
-        <v>3392.82</v>
+        <v>3303.74</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2420,30 +3883,30 @@
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <v>3495.71</v>
+        <v>3403.85</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2451,30 +3914,30 @@
         <v>18</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
-        <v>3598.6</v>
+        <v>3503.96</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2482,30 +3945,30 @@
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <v>3701.49</v>
+        <v>3604.07</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2513,1181 +3976,1181 @@
         <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
-        <v>3804.38</v>
+        <v>3704.18</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>20</v>
+      <c r="B39" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>3907.27</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>18</v>
+      <c r="H39" s="6">
+        <v>3804.29</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>19</v>
+      <c r="B40" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="8">
-        <v>4010.16</v>
+      <c r="H40" s="6">
+        <v>3904.4</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="11">
-        <v>4113.05</v>
+        <v>50</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4004.51</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="11">
-        <v>4215.9399999999996</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H42" s="6">
+        <v>4104.62</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="11">
-        <v>4318.83</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H43" s="6">
+        <v>4204.7299999999996</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="11">
-        <v>4421.72</v>
-      </c>
-      <c r="I44" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="H44" s="6">
+        <v>4304.84</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="J44" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="11">
-        <v>4524.6099999999997</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H45" s="6">
+        <v>4404.95</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="11">
-        <v>4627.5</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="H46" s="6">
+        <v>4505.0600000000004</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="11">
-        <v>4730.3900000000003</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H47" s="6">
+        <v>4605.17</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="11">
-        <v>4833.28</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="H48" s="6">
+        <v>4705.28</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="11">
-        <v>4936.17</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="H49" s="6">
+        <v>4805.3900000000003</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="11">
-        <v>5039.0600000000004</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H50" s="6">
+        <v>4905.5</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="11">
-        <v>5141.95</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="H51" s="6">
+        <v>5005.6099999999997</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="11">
-        <v>5244.84</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H52" s="6">
+        <v>5105.72</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="11">
-        <v>5347.73</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H53" s="6">
+        <v>5205.83</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="11">
-        <v>5450.62</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H54" s="6">
+        <v>5305.94</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" s="11">
-        <v>5553.51</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="H55" s="6">
+        <v>5406.05</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="11">
-        <v>5656.4</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H56" s="6">
+        <v>5506.16</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="11">
-        <v>5759.29</v>
-      </c>
-      <c r="I57" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="H57" s="6">
+        <v>5606.27</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="J57" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="11">
-        <v>5862.18</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H58" s="6">
+        <v>5706.38</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="11">
-        <v>5965.07</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="H59" s="6">
+        <v>5806.49</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="11">
-        <v>6067.96</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="H60" s="6">
+        <v>5906.6</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="6">
+        <v>6006.71</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" s="11">
-        <v>6170.85</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="K61" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62" s="11">
-        <v>6273.74</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="H62" s="6">
+        <v>6106.82</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="11">
-        <v>6376.63</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="H63" s="6">
+        <v>6206.93</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G64" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64" s="11">
-        <v>6479.52</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H64" s="6">
+        <v>6307.04</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" s="11">
-        <v>6582.41</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H65" s="6">
+        <v>6407.15</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="11">
-        <v>6685.3</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="H66" s="6">
+        <v>6507.26</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H67" s="11">
-        <v>6788.19</v>
-      </c>
-      <c r="I67" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="H67" s="6">
+        <v>6607.37</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="J67" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="11">
-        <v>6891.08</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H68" s="6">
+        <v>6707.48</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H69" s="11">
-        <v>6993.97</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="H69" s="6">
+        <v>6807.59</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="11">
-        <v>7096.86</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H70" s="6">
+        <v>6907.7</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H71" s="11">
-        <v>7199.75</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="H71" s="6">
+        <v>7007.81</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H72" s="11">
-        <v>7302.64</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="H72" s="6">
+        <v>7107.92</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="F73" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" s="11">
-        <v>7405.53</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="H73" s="6">
+        <v>7208.03</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,12 +5185,6 @@
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3740,19 +5197,20 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="85.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
@@ -3795,32 +5253,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H2" s="6">
-        <v>100.25</v>
+        <v>7308.14</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3828,32 +5286,32 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H3" s="6">
-        <v>291.23</v>
+        <v>7408.25</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3861,32 +5319,32 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="6">
-        <v>482.21</v>
+        <v>7508.36</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3894,32 +5352,32 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="H5" s="6">
-        <v>673.19</v>
+        <v>7608.47</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3927,32 +5385,32 @@
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7708.58</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="6">
-        <v>864.17</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="K6" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3960,428 +5418,428 @@
         <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1055.1500000000001</v>
+        <v>100</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7808.69</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H8" s="6">
-        <v>1246.1300000000001</v>
+        <v>7908.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H9" s="6">
-        <v>1437.11</v>
+        <v>8008.91</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6">
-        <v>1628.09</v>
+        <v>8109.02</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="H11" s="6">
-        <v>1819.07</v>
+        <v>8209.1299999999992</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H12" s="6">
-        <v>2010.05</v>
+        <v>8309.24</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8409.35</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="8">
-        <v>2201.0300000000002</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="K13" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H14" s="6">
-        <v>2392.0100000000002</v>
+        <v>8509.4599999999991</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H15" s="6">
-        <v>2582.9899999999998</v>
+        <v>8609.57</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6">
-        <v>2773.97</v>
+        <v>8709.6799999999894</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="H17" s="6">
-        <v>2964.95</v>
+        <v>8809.78999999999</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H18" s="6">
-        <v>3155.93</v>
+        <v>8909.8999999999905</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
+        <v>102</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="8">
-        <v>3346.91</v>
+        <v>100</v>
+      </c>
+      <c r="H19" s="6">
+        <v>9010.0099999999893</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="24560" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="记所有类别的收票" sheetId="1" r:id="rId1"/>
-    <sheet name="记所有类别的开票" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="3" r:id="rId1"/>
+    <sheet name="记所有类别的收票" sheetId="1" r:id="rId2"/>
+    <sheet name="记所有类别的开票" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="190">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -2423,6 +2424,17 @@
   </si>
   <si>
     <t>(个)内部代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(个)内部代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(个)其他</t>
+    <rPh sb="4" eb="5">
+      <t>qi ta</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2509,7 +2521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2523,6 +2535,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2800,52 +2815,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="86.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2856,2335 +2859,70 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6">
+        <v>6407.15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>100.22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="H3" s="6">
-        <v>200.33</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>88</v>
+        <v>4004.51</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>300.44</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>400.55</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
-        <v>500.66</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>600.77</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>700.88</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>800.99</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>901.1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>1001.21</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
-        <v>1101.32</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
-        <v>1201.43</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>1301.54</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <v>1401.65</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
-        <v>1501.76</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <v>1601.87</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <v>1701.98</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>1802.09</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>1902.2</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>2002.31</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>2102.42</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <v>2202.5300000000002</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6">
-        <v>2302.64</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
-        <v>2402.75</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6">
-        <v>2502.86</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6">
-        <v>2602.9699999999998</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>2703.08</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>2803.19</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>2903.3</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6">
-        <v>3003.41</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <v>3103.52</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6">
-        <v>3203.63</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6">
-        <v>3303.74</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
-        <v>3403.85</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6">
-        <v>3503.96</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <v>3604.07</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6">
-        <v>3704.18</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="6">
-        <v>3804.29</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="6">
-        <v>3904.4</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="6">
-        <v>4004.51</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="6">
-        <v>4104.62</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="6">
-        <v>4204.7299999999996</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="6">
-        <v>4304.84</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="6">
-        <v>4404.95</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="6">
-        <v>4505.0600000000004</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="6">
-        <v>4605.17</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="6">
-        <v>4705.28</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="6">
-        <v>4805.3900000000003</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="6">
-        <v>4905.5</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="6">
-        <v>5005.6099999999997</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="6">
-        <v>5105.72</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="6">
-        <v>5205.83</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="6">
-        <v>5305.94</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="6">
-        <v>5406.05</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="6">
-        <v>5506.16</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="6">
-        <v>5606.27</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="6">
-        <v>5706.38</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" s="6">
-        <v>5806.49</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="6">
-        <v>5906.6</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="6">
-        <v>6006.71</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="6">
-        <v>6106.82</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="6">
-        <v>6206.93</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="6">
-        <v>6307.04</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="6">
-        <v>6407.15</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="6">
-        <v>6507.26</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="6">
-        <v>6607.37</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="6">
-        <v>6707.48</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="6">
-        <v>6807.59</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" s="6">
-        <v>6907.7</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="6">
-        <v>7007.81</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="6">
-        <v>7107.92</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="6">
-        <v>7208.03</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5194,42 +2932,2436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="85.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="86.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="6">
+        <v>100.22</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6">
+        <v>200.33</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6">
+        <v>300.44</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6">
+        <v>400.55</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6">
+        <v>500.66</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="6">
+        <v>600.77</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="6">
+        <v>700.88</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6">
+        <v>800.99</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6">
+        <v>901.1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6">
+        <v>1001.21</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6">
+        <v>1101.32</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="6">
+        <v>1201.43</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="6">
+        <v>1301.54</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="6">
+        <v>1401.65</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="6">
+        <v>1501.76</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="6">
+        <v>1601.87</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="6">
+        <v>1701.98</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="6">
+        <v>1802.09</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="6">
+        <v>1902.2</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="6">
+        <v>2002.31</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="6">
+        <v>2102.42</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="6">
+        <v>2202.5300000000002</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="6">
+        <v>2302.64</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="6">
+        <v>2402.75</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="6">
+        <v>2502.86</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="6">
+        <v>2602.9699999999998</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="6">
+        <v>2703.08</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="6">
+        <v>2803.19</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="6">
+        <v>2903.3</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="6">
+        <v>3003.41</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6">
+        <v>3103.52</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6">
+        <v>3203.63</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6">
+        <v>3303.74</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6">
+        <v>3403.85</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="6">
+        <v>3503.96</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="6">
+        <v>3604.07</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="6">
+        <v>3704.18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="6">
+        <v>3804.29</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="6">
+        <v>3904.4</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4004.51</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="6">
+        <v>4104.62</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="6">
+        <v>4204.7299999999996</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="6">
+        <v>4304.84</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="6">
+        <v>4404.95</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="6">
+        <v>4505.0600000000004</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="6">
+        <v>4605.17</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="6">
+        <v>4705.28</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="6">
+        <v>4805.3900000000003</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="6">
+        <v>4905.5</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="6">
+        <v>5005.6099999999997</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="6">
+        <v>5105.72</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="6">
+        <v>5205.83</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="6">
+        <v>5305.94</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="6">
+        <v>5406.05</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="6">
+        <v>5506.16</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="6">
+        <v>5606.27</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="6">
+        <v>5706.38</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="6">
+        <v>5806.49</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60" s="6">
+        <v>5906.6</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="6">
+        <v>6006.71</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="6">
+        <v>6106.82</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="6">
+        <v>6206.93</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="6">
+        <v>6307.04</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="6">
+        <v>6407.15</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="6">
+        <v>6507.26</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="6">
+        <v>6607.37</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="6">
+        <v>6707.48</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="6">
+        <v>6807.59</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" s="6">
+        <v>6907.7</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="6">
+        <v>7007.81</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="6">
+        <v>7107.92</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="6">
+        <v>7208.03</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="85.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -5238,7 +5370,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -5249,20 +5381,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -5271,7 +5403,7 @@
       <c r="H2" s="6">
         <v>7308.14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="13" t="s">
         <v>179</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -5282,20 +5414,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -5304,7 +5436,7 @@
       <c r="H3" s="6">
         <v>7408.25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="13" t="s">
         <v>180</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -5315,20 +5447,20 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -5337,7 +5469,7 @@
       <c r="H4" s="6">
         <v>7508.36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="13" t="s">
         <v>181</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -5348,20 +5480,20 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -5370,7 +5502,7 @@
       <c r="H5" s="6">
         <v>7608.47</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="13" t="s">
         <v>180</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -5381,20 +5513,20 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -5403,7 +5535,7 @@
       <c r="H6" s="6">
         <v>7708.58</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="13" t="s">
         <v>181</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -5414,20 +5546,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -5436,7 +5568,7 @@
       <c r="H7" s="6">
         <v>7808.69</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="15" t="s">
         <v>180</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -5447,20 +5579,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -5469,7 +5601,7 @@
       <c r="H8" s="6">
         <v>7908.8</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="13" t="s">
         <v>182</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -5480,20 +5612,20 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -5502,7 +5634,7 @@
       <c r="H9" s="6">
         <v>8008.91</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="13" t="s">
         <v>183</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -5513,20 +5645,20 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -5535,7 +5667,7 @@
       <c r="H10" s="6">
         <v>8109.02</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="13" t="s">
         <v>184</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -5546,20 +5678,20 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -5568,7 +5700,7 @@
       <c r="H11" s="6">
         <v>8209.1299999999992</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="13" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -5579,20 +5711,20 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -5601,7 +5733,7 @@
       <c r="H12" s="6">
         <v>8309.24</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="13" t="s">
         <v>184</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -5612,20 +5744,20 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -5634,7 +5766,7 @@
       <c r="H13" s="6">
         <v>8409.35</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="15" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -5645,20 +5777,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -5667,7 +5799,7 @@
       <c r="H14" s="6">
         <v>8509.4599999999991</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="13" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -5678,20 +5810,20 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -5700,7 +5832,7 @@
       <c r="H15" s="6">
         <v>8609.57</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="13" t="s">
         <v>186</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -5711,20 +5843,20 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -5733,7 +5865,7 @@
       <c r="H16" s="6">
         <v>8709.6799999999894</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="13" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -5744,20 +5876,20 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="13" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -5766,7 +5898,7 @@
       <c r="H17" s="6">
         <v>8809.78999999999</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="13" t="s">
         <v>186</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -5777,20 +5909,20 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -5799,7 +5931,7 @@
       <c r="H18" s="6">
         <v>8909.8999999999905</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="13" t="s">
         <v>185</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -5810,20 +5942,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -5832,7 +5964,7 @@
       <c r="H19" s="6">
         <v>9010.0099999999893</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="15" t="s">
         <v>186</v>
       </c>
       <c r="J19" s="8" t="s">

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -2818,32 +2818,32 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2859,69 +2859,69 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>67</v>
+      <c r="A2" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>50</v>
+      <c r="G2" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H2" s="6">
-        <v>6407.15</v>
+        <v>7308.14</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>87</v>
+        <v>179</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>67</v>
+      <c r="A3" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H3" s="6">
-        <v>4004.51</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>87</v>
+        <v>7408.25</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2934,9 +2934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:K65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5328,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="190">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -2815,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2893,34 +2893,67 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="6">
-        <v>7408.25</v>
+        <v>7908.8</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8509.4599999999991</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2935,8 +2968,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5328,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="191">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -428,16 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工会经理</t>
-    <rPh sb="0" eb="1">
-      <t>gong hui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jing li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -650,16 +640,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>lao wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产租赁</t>
-    <rPh sb="0" eb="1">
-      <t>bu dong c</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zu lin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2434,6 +2414,42 @@
     <t>(个)其他</t>
     <rPh sb="4" eb="5">
       <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会经费</t>
+    <rPh sb="0" eb="1">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动产租赁服务</t>
+    <rPh sb="0" eb="1">
+      <t>bu dong c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu lin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会经费</t>
+    <rPh sb="0" eb="1">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2442,6 +2458,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2521,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2538,6 +2557,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2815,35 +2835,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2863,98 +2892,787 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="E2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="6">
-        <v>7308.14</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="16">
+        <v>3103.52</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="6">
-        <v>7908.8</v>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16">
+        <v>3203.63</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>101</v>
+      <c r="A4" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="16">
+        <v>5105.72</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5205.83</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="6">
-        <v>8509.4599999999991</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5305.94</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5406.05</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>106</v>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5506.16</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="16">
+        <v>5606.27</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5706.38</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5806.49</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5906.6</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6006.71</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="16">
+        <v>6106.82</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="16">
+        <v>6206.93</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="16">
+        <v>6307.04</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6407.15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="16">
+        <v>6507.26</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="16">
+        <v>6607.37</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="16">
+        <v>6707.48</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="16">
+        <v>6807.59</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="16">
+        <v>6907.7</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="16">
+        <v>7007.81</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="16">
+        <v>7107.92</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="16">
+        <v>7208.03</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2968,8 +3686,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:K41"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3025,30 +3743,30 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="6">
+      <c r="H2" s="16">
         <v>100.22</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3056,30 +3774,30 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="6">
+      <c r="H3" s="16">
         <v>200.33</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3087,30 +3805,30 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="6">
+      <c r="H4" s="16">
         <v>300.44</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3125,23 +3843,23 @@
         <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="6">
+      <c r="H5" s="16">
         <v>400.55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3149,30 +3867,30 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="6">
+      <c r="H6" s="16">
         <v>500.66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3187,23 +3905,23 @@
         <v>25</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="6">
+      <c r="H7" s="16">
         <v>600.77</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3211,30 +3929,30 @@
         <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="6">
+      <c r="H8" s="16">
         <v>700.88</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3249,23 +3967,23 @@
         <v>27</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="6">
+      <c r="H9" s="16">
         <v>800.99</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3273,30 +3991,30 @@
         <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="6">
+      <c r="H10" s="16">
         <v>901.1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3311,23 +4029,23 @@
         <v>29</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="6">
+      <c r="H11" s="16">
         <v>1001.21</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3335,30 +4053,30 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="6">
+      <c r="H12" s="16">
         <v>1101.32</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3370,26 +4088,26 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="6">
+      <c r="H13" s="16">
         <v>1201.43</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3397,30 +4115,30 @@
         <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="6">
+      <c r="H14" s="16">
         <v>1301.54</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3435,23 +4153,23 @@
         <v>32</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="6">
+      <c r="H15" s="16">
         <v>1401.65</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3459,30 +4177,30 @@
         <v>18</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="6">
+      <c r="H16" s="16">
         <v>1501.76</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3497,23 +4215,23 @@
         <v>34</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="6">
+      <c r="H17" s="16">
         <v>1601.87</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3521,30 +4239,30 @@
         <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="6">
+      <c r="H18" s="16">
         <v>1701.98</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3559,23 +4277,23 @@
         <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="6">
+      <c r="H19" s="16">
         <v>1802.09</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3583,30 +4301,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="6">
+      <c r="H20" s="16">
         <v>1902.2</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3621,23 +4339,23 @@
         <v>38</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="6">
+      <c r="H21" s="16">
         <v>2002.31</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3645,30 +4363,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="6">
+      <c r="H22" s="16">
         <v>2102.42</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3683,23 +4401,23 @@
         <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="6">
+      <c r="H23" s="16">
         <v>2202.5300000000002</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3707,30 +4425,30 @@
         <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="6">
+      <c r="H24" s="16">
         <v>2302.64</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3745,23 +4463,23 @@
         <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="6">
+      <c r="H25" s="16">
         <v>2402.75</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3769,30 +4487,30 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="6">
+      <c r="H26" s="16">
         <v>2502.86</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3807,23 +4525,23 @@
         <v>44</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="6">
+      <c r="H27" s="16">
         <v>2602.9699999999998</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3831,30 +4549,30 @@
         <v>18</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="6">
+      <c r="H28" s="16">
         <v>2703.08</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3869,23 +4587,23 @@
         <v>46</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="6">
+      <c r="H29" s="16">
         <v>2803.19</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3893,30 +4611,30 @@
         <v>18</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="6">
+      <c r="H30" s="16">
         <v>2903.3</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3931,23 +4649,23 @@
         <v>48</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="6">
+      <c r="H31" s="16">
         <v>3003.41</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3955,30 +4673,30 @@
         <v>18</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="6">
+      <c r="H32" s="16">
         <v>3103.52</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3990,26 +4708,26 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="6">
+      <c r="H33" s="16">
         <v>3203.63</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -4017,30 +4735,30 @@
         <v>18</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="6">
+      <c r="H34" s="16">
         <v>3303.74</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4052,26 +4770,26 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="6">
+      <c r="H35" s="16">
         <v>3403.85</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4079,30 +4797,30 @@
         <v>18</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="6">
+      <c r="H36" s="16">
         <v>3503.96</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4114,26 +4832,26 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="6">
+      <c r="H37" s="16">
         <v>3604.07</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4141,30 +4859,30 @@
         <v>18</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="6">
+      <c r="H38" s="16">
         <v>3704.18</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4176,26 +4894,26 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="6">
+      <c r="H39" s="16">
         <v>3804.29</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4203,35 +4921,35 @@
         <v>18</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="6">
+      <c r="H40" s="16">
         <v>3904.4</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>19</v>
@@ -4241,63 +4959,63 @@
         <v>20</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="6">
+        <v>49</v>
+      </c>
+      <c r="H41" s="16">
         <v>4004.51</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="6">
+        <v>49</v>
+      </c>
+      <c r="H42" s="16">
         <v>4104.62</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>19</v>
@@ -4307,63 +5025,63 @@
         <v>23</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="6">
+        <v>69</v>
+      </c>
+      <c r="H43" s="16">
         <v>4204.7299999999996</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="6">
+        <v>70</v>
+      </c>
+      <c r="H44" s="16">
         <v>4304.84</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>19</v>
@@ -4373,63 +5091,63 @@
         <v>25</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="6">
+        <v>71</v>
+      </c>
+      <c r="H45" s="16">
         <v>4404.95</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="6">
+        <v>72</v>
+      </c>
+      <c r="H46" s="16">
         <v>4505.0600000000004</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>19</v>
@@ -4439,63 +5157,63 @@
         <v>27</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="6">
+        <v>73</v>
+      </c>
+      <c r="H47" s="16">
         <v>4605.17</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="6">
+        <v>74</v>
+      </c>
+      <c r="H48" s="16">
         <v>4705.28</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>19</v>
@@ -4505,129 +5223,129 @@
         <v>29</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="6">
+        <v>75</v>
+      </c>
+      <c r="H49" s="16">
         <v>4805.3900000000003</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="6">
+        <v>49</v>
+      </c>
+      <c r="H50" s="16">
         <v>4905.5</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="6">
+        <v>189</v>
+      </c>
+      <c r="H51" s="16">
         <v>5005.6099999999997</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="6">
+        <v>49</v>
+      </c>
+      <c r="H52" s="16">
         <v>5105.72</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>19</v>
@@ -4637,63 +5355,63 @@
         <v>32</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="6">
+        <v>71</v>
+      </c>
+      <c r="H53" s="16">
         <v>5205.83</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="6">
+        <v>73</v>
+      </c>
+      <c r="H54" s="16">
         <v>5305.94</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>19</v>
@@ -4703,63 +5421,63 @@
         <v>34</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="6">
+        <v>77</v>
+      </c>
+      <c r="H55" s="16">
         <v>5406.05</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="6">
+        <v>49</v>
+      </c>
+      <c r="H56" s="16">
         <v>5506.16</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>19</v>
@@ -4769,63 +5487,63 @@
         <v>36</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="6">
+        <v>70</v>
+      </c>
+      <c r="H57" s="16">
         <v>5606.27</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="6">
+        <v>71</v>
+      </c>
+      <c r="H58" s="16">
         <v>5706.38</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>19</v>
@@ -4835,63 +5553,63 @@
         <v>38</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" s="6">
+        <v>79</v>
+      </c>
+      <c r="H59" s="16">
         <v>5806.49</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="6">
+      <c r="H60" s="16">
         <v>5906.6</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>19</v>
@@ -4901,63 +5619,63 @@
         <v>40</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="6">
+        <v>49</v>
+      </c>
+      <c r="H61" s="16">
         <v>6006.71</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G62" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="16">
+        <v>6106.82</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H62" s="6">
-        <v>6106.82</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="K62" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>19</v>
@@ -4967,63 +5685,63 @@
         <v>42</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="6">
+      <c r="H63" s="16">
         <v>6206.93</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="6">
+        <v>49</v>
+      </c>
+      <c r="H64" s="16">
         <v>6307.04</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>19</v>
@@ -5033,63 +5751,63 @@
         <v>44</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="6">
+        <v>49</v>
+      </c>
+      <c r="H65" s="16">
         <v>6407.15</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="6">
+        <v>69</v>
+      </c>
+      <c r="H66" s="16">
         <v>6507.26</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>19</v>
@@ -5099,63 +5817,63 @@
         <v>46</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="6">
+        <v>70</v>
+      </c>
+      <c r="H67" s="16">
         <v>6607.37</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="6">
+        <v>71</v>
+      </c>
+      <c r="H68" s="16">
         <v>6707.48</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>19</v>
@@ -5165,157 +5883,157 @@
         <v>48</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="6">
+        <v>72</v>
+      </c>
+      <c r="H69" s="16">
         <v>6807.59</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" s="6">
+        <v>73</v>
+      </c>
+      <c r="H70" s="16">
         <v>6907.7</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="6">
+        <v>74</v>
+      </c>
+      <c r="H71" s="16">
         <v>7007.81</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="6">
+        <v>75</v>
+      </c>
+      <c r="H72" s="16">
         <v>7107.92</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="F73" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="6">
+        <v>49</v>
+      </c>
+      <c r="H73" s="16">
         <v>7208.03</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5361,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5418,32 +6136,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="6">
         <v>7308.14</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5451,32 +6169,32 @@
         <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H3" s="6">
         <v>7408.25</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5484,32 +6202,32 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="6">
         <v>7508.36</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5517,32 +6235,32 @@
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="6">
         <v>7608.47</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5550,32 +6268,32 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="6">
         <v>7708.58</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5583,428 +6301,428 @@
         <v>18</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7" s="6">
         <v>7808.69</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="6">
         <v>7908.8</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H9" s="6">
         <v>8008.91</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="6">
         <v>8109.02</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6">
         <v>8209.1299999999992</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H12" s="6">
         <v>8309.24</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6">
         <v>8409.35</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="6">
         <v>8509.4599999999991</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="6">
         <v>8609.57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6">
         <v>8709.6799999999894</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="6">
         <v>8809.78999999999</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="6">
         <v>8909.8999999999905</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>9010.0099999999893</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="-200" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="191">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -428,16 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工会经理</t>
-    <rPh sb="0" eb="1">
-      <t>gong hui</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jing li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -650,16 +640,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>lao wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产租赁</t>
-    <rPh sb="0" eb="1">
-      <t>bu dong c</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zu lin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2434,6 +2414,42 @@
     <t>(个)其他</t>
     <rPh sb="4" eb="5">
       <t>qi ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会经费</t>
+    <rPh sb="0" eb="1">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动产租赁服务</t>
+    <rPh sb="0" eb="1">
+      <t>bu dong c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu lin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会经费</t>
+    <rPh sb="0" eb="1">
+      <t>gong hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2442,6 +2458,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2521,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2538,6 +2557,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2815,35 +2835,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2863,32 +2892,30 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="E2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="6">
-        <v>7308.14</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="16">
+        <v>3103.52</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2896,32 +2923,756 @@
         <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="6">
-        <v>7408.25</v>
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16">
+        <v>3203.63</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="16">
+        <v>5105.72</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5205.83</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5305.94</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5406.05</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5506.16</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="16">
+        <v>5606.27</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5706.38</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="16">
+        <v>5806.49</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16">
+        <v>5906.6</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6006.71</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="16">
+        <v>6106.82</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="16">
+        <v>6206.93</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="16">
+        <v>6307.04</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6407.15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="16">
+        <v>6507.26</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="16">
+        <v>6607.37</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="16">
+        <v>6707.48</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="16">
+        <v>6807.59</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="16">
+        <v>6907.7</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="16">
+        <v>7007.81</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="16">
+        <v>7107.92</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="16">
+        <v>7208.03</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2935,8 +3686,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2992,30 +3743,30 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="6">
+      <c r="H2" s="16">
         <v>100.22</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3023,30 +3774,30 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="6">
+      <c r="H3" s="16">
         <v>200.33</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3054,30 +3805,30 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="6">
+      <c r="H4" s="16">
         <v>300.44</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3092,23 +3843,23 @@
         <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="6">
+      <c r="H5" s="16">
         <v>400.55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3116,30 +3867,30 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="6">
+      <c r="H6" s="16">
         <v>500.66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3154,23 +3905,23 @@
         <v>25</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="6">
+      <c r="H7" s="16">
         <v>600.77</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3178,30 +3929,30 @@
         <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="6">
+      <c r="H8" s="16">
         <v>700.88</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3216,23 +3967,23 @@
         <v>27</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="6">
+      <c r="H9" s="16">
         <v>800.99</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3240,30 +3991,30 @@
         <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="6">
+      <c r="H10" s="16">
         <v>901.1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3278,23 +4029,23 @@
         <v>29</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="6">
+      <c r="H11" s="16">
         <v>1001.21</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3302,30 +4053,30 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="6">
+      <c r="H12" s="16">
         <v>1101.32</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3337,26 +4088,26 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="6">
+      <c r="H13" s="16">
         <v>1201.43</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3364,30 +4115,30 @@
         <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="6">
+      <c r="H14" s="16">
         <v>1301.54</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3402,23 +4153,23 @@
         <v>32</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="6">
+      <c r="H15" s="16">
         <v>1401.65</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3426,30 +4177,30 @@
         <v>18</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="6">
+      <c r="H16" s="16">
         <v>1501.76</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3464,23 +4215,23 @@
         <v>34</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="6">
+      <c r="H17" s="16">
         <v>1601.87</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3488,30 +4239,30 @@
         <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="6">
+      <c r="H18" s="16">
         <v>1701.98</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3526,23 +4277,23 @@
         <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="6">
+      <c r="H19" s="16">
         <v>1802.09</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3550,30 +4301,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="6">
+      <c r="H20" s="16">
         <v>1902.2</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3588,23 +4339,23 @@
         <v>38</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="6">
+      <c r="H21" s="16">
         <v>2002.31</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3612,30 +4363,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="6">
+      <c r="H22" s="16">
         <v>2102.42</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3650,23 +4401,23 @@
         <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="6">
+      <c r="H23" s="16">
         <v>2202.5300000000002</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3674,30 +4425,30 @@
         <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="6">
+      <c r="H24" s="16">
         <v>2302.64</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3712,23 +4463,23 @@
         <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="6">
+      <c r="H25" s="16">
         <v>2402.75</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3736,30 +4487,30 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="6">
+      <c r="H26" s="16">
         <v>2502.86</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3774,23 +4525,23 @@
         <v>44</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="6">
+      <c r="H27" s="16">
         <v>2602.9699999999998</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3798,30 +4549,30 @@
         <v>18</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="6">
+      <c r="H28" s="16">
         <v>2703.08</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3836,23 +4587,23 @@
         <v>46</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="6">
+      <c r="H29" s="16">
         <v>2803.19</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3860,30 +4611,30 @@
         <v>18</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="6">
+      <c r="H30" s="16">
         <v>2903.3</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3898,23 +4649,23 @@
         <v>48</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="6">
+      <c r="H31" s="16">
         <v>3003.41</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3922,30 +4673,30 @@
         <v>18</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="6">
+      <c r="H32" s="16">
         <v>3103.52</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3957,26 +4708,26 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="6">
+      <c r="H33" s="16">
         <v>3203.63</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3984,30 +4735,30 @@
         <v>18</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="6">
+      <c r="H34" s="16">
         <v>3303.74</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4019,26 +4770,26 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="6">
+      <c r="H35" s="16">
         <v>3403.85</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4046,30 +4797,30 @@
         <v>18</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="6">
+      <c r="H36" s="16">
         <v>3503.96</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4081,26 +4832,26 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="6">
+      <c r="H37" s="16">
         <v>3604.07</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4108,30 +4859,30 @@
         <v>18</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="6">
+      <c r="H38" s="16">
         <v>3704.18</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4143,26 +4894,26 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="6">
+      <c r="H39" s="16">
         <v>3804.29</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4170,35 +4921,35 @@
         <v>18</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="6">
+      <c r="H40" s="16">
         <v>3904.4</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>19</v>
@@ -4208,63 +4959,63 @@
         <v>20</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="6">
+        <v>49</v>
+      </c>
+      <c r="H41" s="16">
         <v>4004.51</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="6">
+        <v>49</v>
+      </c>
+      <c r="H42" s="16">
         <v>4104.62</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>19</v>
@@ -4274,63 +5025,63 @@
         <v>23</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="6">
+        <v>69</v>
+      </c>
+      <c r="H43" s="16">
         <v>4204.7299999999996</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="6">
+        <v>70</v>
+      </c>
+      <c r="H44" s="16">
         <v>4304.84</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>19</v>
@@ -4340,63 +5091,63 @@
         <v>25</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="6">
+        <v>71</v>
+      </c>
+      <c r="H45" s="16">
         <v>4404.95</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="6">
+        <v>72</v>
+      </c>
+      <c r="H46" s="16">
         <v>4505.0600000000004</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>19</v>
@@ -4406,63 +5157,63 @@
         <v>27</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="6">
+        <v>73</v>
+      </c>
+      <c r="H47" s="16">
         <v>4605.17</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="6">
+        <v>74</v>
+      </c>
+      <c r="H48" s="16">
         <v>4705.28</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>19</v>
@@ -4472,129 +5223,129 @@
         <v>29</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="6">
+        <v>75</v>
+      </c>
+      <c r="H49" s="16">
         <v>4805.3900000000003</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="6">
+        <v>49</v>
+      </c>
+      <c r="H50" s="16">
         <v>4905.5</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="6">
+        <v>189</v>
+      </c>
+      <c r="H51" s="16">
         <v>5005.6099999999997</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="6">
+        <v>49</v>
+      </c>
+      <c r="H52" s="16">
         <v>5105.72</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>19</v>
@@ -4604,63 +5355,63 @@
         <v>32</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="6">
+        <v>71</v>
+      </c>
+      <c r="H53" s="16">
         <v>5205.83</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="6">
+        <v>73</v>
+      </c>
+      <c r="H54" s="16">
         <v>5305.94</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>19</v>
@@ -4670,63 +5421,63 @@
         <v>34</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="6">
+        <v>77</v>
+      </c>
+      <c r="H55" s="16">
         <v>5406.05</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="6">
+        <v>49</v>
+      </c>
+      <c r="H56" s="16">
         <v>5506.16</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>19</v>
@@ -4736,63 +5487,63 @@
         <v>36</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="6">
+        <v>70</v>
+      </c>
+      <c r="H57" s="16">
         <v>5606.27</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="6">
+        <v>71</v>
+      </c>
+      <c r="H58" s="16">
         <v>5706.38</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>19</v>
@@ -4802,63 +5553,63 @@
         <v>38</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" s="6">
+        <v>79</v>
+      </c>
+      <c r="H59" s="16">
         <v>5806.49</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="6">
+      <c r="H60" s="16">
         <v>5906.6</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>19</v>
@@ -4868,63 +5619,63 @@
         <v>40</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="6">
+        <v>49</v>
+      </c>
+      <c r="H61" s="16">
         <v>6006.71</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G62" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="16">
+        <v>6106.82</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H62" s="6">
-        <v>6106.82</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="K62" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>19</v>
@@ -4934,63 +5685,63 @@
         <v>42</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="6">
+      <c r="H63" s="16">
         <v>6206.93</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="6">
+        <v>49</v>
+      </c>
+      <c r="H64" s="16">
         <v>6307.04</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>19</v>
@@ -5000,63 +5751,63 @@
         <v>44</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" s="6">
+        <v>49</v>
+      </c>
+      <c r="H65" s="16">
         <v>6407.15</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="6">
+        <v>69</v>
+      </c>
+      <c r="H66" s="16">
         <v>6507.26</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>19</v>
@@ -5066,63 +5817,63 @@
         <v>46</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="6">
+        <v>70</v>
+      </c>
+      <c r="H67" s="16">
         <v>6607.37</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="6">
+        <v>71</v>
+      </c>
+      <c r="H68" s="16">
         <v>6707.48</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>19</v>
@@ -5132,157 +5883,157 @@
         <v>48</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="6">
+        <v>72</v>
+      </c>
+      <c r="H69" s="16">
         <v>6807.59</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" s="6">
+        <v>73</v>
+      </c>
+      <c r="H70" s="16">
         <v>6907.7</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="6">
+        <v>74</v>
+      </c>
+      <c r="H71" s="16">
         <v>7007.81</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="6">
+        <v>75</v>
+      </c>
+      <c r="H72" s="16">
         <v>7107.92</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="F73" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="6">
+        <v>49</v>
+      </c>
+      <c r="H73" s="16">
         <v>7208.03</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5328,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5385,32 +6136,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="6">
         <v>7308.14</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5418,32 +6169,32 @@
         <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H3" s="6">
         <v>7408.25</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5451,32 +6202,32 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="6">
         <v>7508.36</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5484,32 +6235,32 @@
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="6">
         <v>7608.47</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5517,32 +6268,32 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="6">
         <v>7708.58</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5550,428 +6301,428 @@
         <v>18</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7" s="6">
         <v>7808.69</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="6">
         <v>7908.8</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H9" s="6">
         <v>8008.91</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="6">
         <v>8109.02</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H11" s="6">
         <v>8209.1299999999992</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H12" s="6">
         <v>8309.24</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="6">
         <v>8409.35</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="6">
         <v>8509.4599999999991</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="6">
         <v>8609.57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6">
         <v>8709.6799999999894</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="6">
         <v>8809.78999999999</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="6">
         <v>8909.8999999999905</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>9010.0099999999893</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="191">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -2459,7 +2459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2557,7 +2557,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2835,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,25 +2891,25 @@
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="16">
-        <v>3103.52</v>
+        <v>100.22</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>86</v>
@@ -2922,25 +2922,25 @@
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>19</v>
+      <c r="B3" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="16">
-        <v>3203.63</v>
+        <v>200.33</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>86</v>
@@ -2950,728 +2950,1941 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>66</v>
+      <c r="A4" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="16">
-        <v>5105.72</v>
+        <v>300.44</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>85</v>
+        <v>107</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>66</v>
+      <c r="A5" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="16">
-        <v>5205.83</v>
+        <v>400.55</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>85</v>
+        <v>109</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>66</v>
+      <c r="A6" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="16">
-        <v>5305.94</v>
+        <v>500.66</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>85</v>
+        <v>108</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>66</v>
+      <c r="A7" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="16">
-        <v>5406.05</v>
+        <v>600.77</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>85</v>
+        <v>110</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>66</v>
+      <c r="A8" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="16">
-        <v>5506.16</v>
+        <v>700.88</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>85</v>
+        <v>111</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>66</v>
+      <c r="A9" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="16">
-        <v>5606.27</v>
+        <v>800.99</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>85</v>
+        <v>112</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>66</v>
+      <c r="A10" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="16">
-        <v>5706.38</v>
+        <v>901.1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>85</v>
+        <v>113</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
+      <c r="A11" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G11" s="13"/>
       <c r="H11" s="16">
-        <v>5806.49</v>
+        <v>1001.21</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>66</v>
+      <c r="A12" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>80</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="16">
-        <v>5906.6</v>
+        <v>1101.32</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>85</v>
+        <v>115</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>66</v>
+      <c r="A13" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G13" s="13"/>
       <c r="H13" s="16">
-        <v>6006.71</v>
+        <v>1201.43</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>85</v>
+        <v>116</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>66</v>
+      <c r="A14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="16">
-        <v>6106.82</v>
+        <v>1301.54</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>85</v>
+        <v>118</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>66</v>
+      <c r="A15" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="G15" s="13"/>
       <c r="H15" s="16">
-        <v>6206.93</v>
+        <v>1401.65</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>85</v>
+        <v>117</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>66</v>
+      <c r="A16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="16">
-        <v>6307.04</v>
+        <v>1501.76</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>66</v>
+      <c r="A17" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="G17" s="13"/>
       <c r="H17" s="16">
-        <v>6407.15</v>
+        <v>1601.87</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>85</v>
+        <v>120</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>66</v>
+      <c r="A18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="16">
-        <v>6507.26</v>
+        <v>1701.98</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>85</v>
+        <v>122</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>66</v>
+      <c r="A19" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G19" s="13"/>
       <c r="H19" s="16">
-        <v>6607.37</v>
+        <v>1802.09</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>66</v>
+      <c r="A20" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>71</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G20" s="13"/>
       <c r="H20" s="16">
-        <v>6707.48</v>
+        <v>1902.2</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>85</v>
+        <v>123</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>66</v>
+      <c r="A21" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G21" s="13"/>
       <c r="H21" s="16">
-        <v>6807.59</v>
+        <v>2002.31</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>85</v>
+        <v>124</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>66</v>
+      <c r="A22" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="16">
-        <v>6907.7</v>
+        <v>2102.42</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>66</v>
+      <c r="A23" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>74</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G23" s="13"/>
       <c r="H23" s="16">
-        <v>7007.81</v>
+        <v>2202.5300000000002</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>66</v>
+      <c r="A24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="G24" s="13"/>
       <c r="H24" s="16">
-        <v>7107.92</v>
+        <v>2302.64</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>85</v>
+        <v>127</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>66</v>
+      <c r="A25" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="16">
+        <v>2402.75</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="16">
+        <v>2502.86</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="16">
+        <v>2602.9699999999998</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="16">
+        <v>2703.08</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="16">
+        <v>2803.19</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="16">
+        <v>2903.3</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="16">
+        <v>3003.41</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="16">
+        <v>3103.52</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="16">
-        <v>7208.03</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="11" t="s">
+      <c r="E33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="16">
+        <v>3203.63</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="16">
+        <v>3303.74</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="16">
+        <v>3403.85</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="16">
+        <v>3503.96</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="16">
+        <v>3604.07</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="16">
+        <v>3704.18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="16">
+        <v>3804.29</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16">
+        <v>3904.4</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="16">
+        <v>4004.51</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K41" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="16">
+        <v>4104.62</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="16">
+        <v>4204.7299999999996</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="16">
+        <v>4304.84</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="16">
+        <v>4404.95</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="16">
+        <v>4505.0600000000004</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="16">
+        <v>4605.17</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="16">
+        <v>4705.28</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="16">
+        <v>4805.3900000000003</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="16">
+        <v>4905.5</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="16">
+        <v>5005.6099999999997</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="16">
+        <v>5105.72</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="16">
+        <v>5205.83</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="16">
+        <v>5305.94</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="16">
+        <v>5406.05</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="16">
+        <v>5506.16</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="16">
+        <v>5606.27</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="16">
+        <v>5706.38</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="16">
+        <v>5806.49</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="16">
+        <v>5906.6</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" s="16">
+        <v>6006.71</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="16">
+        <v>6106.82</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="16">
+        <v>6206.93</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="16">
+        <v>6307.04</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K64" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3686,8 +4899,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A2:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6080,7 +7293,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="191">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -2835,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD64"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,25 +2891,25 @@
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="16">
-        <v>100.22</v>
+        <v>1301.54</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>86</v>
@@ -2922,25 +2922,25 @@
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>187</v>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="16">
-        <v>200.33</v>
+        <v>1401.65</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>86</v>
@@ -2958,20 +2958,20 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="16">
-        <v>300.44</v>
+        <v>1501.76</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>86</v>
@@ -2989,20 +2989,20 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="16">
-        <v>400.55</v>
+        <v>1601.87</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>86</v>
@@ -3020,20 +3020,20 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="16">
-        <v>500.66</v>
+        <v>1701.98</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>86</v>
@@ -3051,20 +3051,20 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="16">
-        <v>600.77</v>
+        <v>1802.09</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>86</v>
@@ -3082,20 +3082,20 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="16">
-        <v>700.88</v>
+        <v>1902.2</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>86</v>
@@ -3113,20 +3113,20 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="16">
-        <v>800.99</v>
+        <v>2002.31</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>86</v>
@@ -3144,20 +3144,20 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="16">
-        <v>901.1</v>
+        <v>2102.42</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>86</v>
@@ -3175,20 +3175,20 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="16">
-        <v>1001.21</v>
+        <v>2202.5300000000002</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>86</v>
@@ -3206,20 +3206,20 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="16">
-        <v>1101.32</v>
+        <v>2302.64</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>86</v>
@@ -3237,20 +3237,20 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="16">
-        <v>1201.43</v>
+        <v>2402.75</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>86</v>
@@ -3268,20 +3268,20 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="16">
-        <v>1301.54</v>
+        <v>2502.86</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>86</v>
@@ -3299,20 +3299,20 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="16">
-        <v>1401.65</v>
+        <v>2602.9699999999998</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>86</v>
@@ -3330,20 +3330,20 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="16">
-        <v>1501.76</v>
+        <v>2703.08</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>86</v>
@@ -3361,20 +3361,20 @@
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="16">
-        <v>1601.87</v>
+        <v>2803.19</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>86</v>
@@ -3392,20 +3392,20 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="16">
-        <v>1701.98</v>
+        <v>2903.3</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>86</v>
@@ -3423,20 +3423,20 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="16">
-        <v>1802.09</v>
+        <v>3003.41</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>86</v>
@@ -3454,20 +3454,20 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="16">
-        <v>1902.2</v>
+        <v>3103.52</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>86</v>
@@ -3485,20 +3485,20 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="16">
-        <v>2002.31</v>
+        <v>3203.63</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>86</v>
@@ -3516,20 +3516,20 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="16">
-        <v>2102.42</v>
+        <v>3303.74</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>86</v>
@@ -3547,20 +3547,20 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="16">
-        <v>2202.5300000000002</v>
+        <v>3403.85</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>86</v>
@@ -3578,20 +3578,20 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="16">
-        <v>2302.64</v>
+        <v>3503.96</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>86</v>
@@ -3609,20 +3609,20 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="16">
-        <v>2402.75</v>
+        <v>3604.07</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>86</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="16">
-        <v>2502.86</v>
+        <v>3704.18</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>86</v>
@@ -3663,28 +3663,28 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="13"/>
+      <c r="F27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="16">
-        <v>2602.9699999999998</v>
+        <v>3804.29</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>86</v>
@@ -3694,30 +3694,30 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="13"/>
+      <c r="F28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="16">
-        <v>2703.08</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="6" t="s">
+        <v>3904.4</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>86</v>
       </c>
       <c r="K28" s="10" t="s">
@@ -3725,310 +3725,330 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>18</v>
+      <c r="A29" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H29" s="16">
-        <v>2803.19</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>86</v>
+        <v>4004.51</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>18</v>
+      <c r="A30" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H30" s="16">
-        <v>2903.3</v>
+        <v>4104.62</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>86</v>
+        <v>144</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>18</v>
+      <c r="A31" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="H31" s="16">
-        <v>3003.41</v>
+        <v>4204.7299999999996</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>86</v>
+        <v>145</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>18</v>
+      <c r="A32" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="H32" s="16">
-        <v>3103.52</v>
+        <v>4304.84</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>86</v>
+        <v>146</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>18</v>
+      <c r="A33" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="H33" s="16">
-        <v>3203.63</v>
+        <v>4404.95</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>86</v>
+        <v>147</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>18</v>
+      <c r="A34" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="H34" s="16">
-        <v>3303.74</v>
+        <v>4505.0600000000004</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>86</v>
+        <v>148</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>18</v>
+      <c r="A35" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="H35" s="16">
-        <v>3403.85</v>
+        <v>4605.17</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>86</v>
+        <v>149</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>18</v>
+      <c r="A36" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="H36" s="16">
-        <v>3503.96</v>
+        <v>4705.28</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>86</v>
+        <v>150</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>18</v>
+      <c r="A37" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="H37" s="16">
-        <v>3604.07</v>
+        <v>4805.3900000000003</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>86</v>
+        <v>151</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>18</v>
+      <c r="A38" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H38" s="16">
-        <v>3704.18</v>
+        <v>4905.5</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>86</v>
+        <v>152</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>87</v>
@@ -4036,61 +4056,65 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="H39" s="16">
-        <v>3804.29</v>
+        <v>5005.6099999999997</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>86</v>
+        <v>153</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>18</v>
+      <c r="A40" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" s="16">
-        <v>3904.4</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>86</v>
+        <v>5105.72</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>87</v>
@@ -4105,22 +4129,22 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H41" s="16">
-        <v>4004.51</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>143</v>
+        <v>5205.83</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>85</v>
@@ -4138,22 +4162,22 @@
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H42" s="16">
-        <v>4104.62</v>
+        <v>5305.94</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>85</v>
@@ -4171,22 +4195,22 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H43" s="16">
-        <v>4204.7299999999996</v>
+        <v>5406.05</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>85</v>
@@ -4204,22 +4228,22 @@
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H44" s="16">
-        <v>4304.84</v>
+        <v>5506.16</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>85</v>
@@ -4237,22 +4261,22 @@
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H45" s="16">
-        <v>4404.95</v>
+        <v>5606.27</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>85</v>
@@ -4270,22 +4294,22 @@
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H46" s="16">
-        <v>4505.0600000000004</v>
+        <v>5706.38</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>85</v>
@@ -4303,22 +4327,22 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H47" s="16">
-        <v>4605.17</v>
+        <v>5806.49</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>85</v>
@@ -4336,22 +4360,22 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H48" s="16">
-        <v>4705.28</v>
+        <v>5906.6</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>85</v>
@@ -4369,22 +4393,22 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H49" s="16">
-        <v>4805.3900000000003</v>
+        <v>6006.71</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>85</v>
@@ -4402,22 +4426,22 @@
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H50" s="16">
-        <v>4905.5</v>
+        <v>6106.82</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>85</v>
@@ -4435,22 +4459,22 @@
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="H51" s="16">
-        <v>5005.6099999999997</v>
+        <v>6206.93</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>85</v>
@@ -4468,22 +4492,22 @@
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H52" s="16">
-        <v>5105.72</v>
+        <v>6307.04</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>85</v>
@@ -4501,22 +4525,22 @@
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H53" s="16">
-        <v>5205.83</v>
+        <v>6407.15</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>85</v>
@@ -4534,22 +4558,22 @@
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H54" s="16">
-        <v>5305.94</v>
+        <v>6507.26</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>85</v>
@@ -4567,22 +4591,22 @@
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H55" s="16">
-        <v>5406.05</v>
+        <v>6607.37</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>85</v>
@@ -4600,22 +4624,22 @@
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H56" s="16">
-        <v>5506.16</v>
+        <v>6707.48</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>85</v>
@@ -4633,22 +4657,22 @@
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H57" s="16">
-        <v>5606.27</v>
+        <v>6807.59</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>85</v>
@@ -4666,22 +4690,22 @@
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H58" s="16">
-        <v>5706.38</v>
+        <v>6907.7</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>85</v>
@@ -4699,22 +4723,22 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H59" s="16">
-        <v>5806.49</v>
+        <v>7007.81</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>85</v>
@@ -4732,22 +4756,22 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H60" s="16">
-        <v>5906.6</v>
+        <v>7107.92</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>85</v>
@@ -4765,126 +4789,27 @@
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H61" s="16">
-        <v>6006.71</v>
+        <v>7208.03</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>85</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H62" s="16">
-        <v>6106.82</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="16">
-        <v>6206.93</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="16">
-        <v>6307.04</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K64" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4899,8 +4824,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A2:XFD64"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7293,7 +7218,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="191">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -2459,7 +2459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2557,7 +2557,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2835,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2888,39 +2888,41 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
+      <c r="A2" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="H2" s="16">
-        <v>3103.52</v>
+        <v>6907.7</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>86</v>
+        <v>175</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
+      <c r="A3" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>19</v>
@@ -2930,748 +2932,24 @@
         <v>49</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="H3" s="16">
-        <v>3203.63</v>
+        <v>7007.81</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>86</v>
+        <v>172</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="16">
-        <v>5105.72</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="16">
-        <v>5205.83</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="16">
-        <v>5305.94</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="16">
-        <v>5406.05</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="16">
-        <v>5506.16</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="16">
-        <v>5606.27</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="16">
-        <v>5706.38</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="16">
-        <v>5806.49</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="16">
-        <v>5906.6</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="16">
-        <v>6006.71</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="16">
-        <v>6106.82</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="16">
-        <v>6206.93</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="16">
-        <v>6307.04</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="16">
-        <v>6407.15</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="16">
-        <v>6507.26</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="16">
-        <v>6607.37</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="16">
-        <v>6707.48</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="16">
-        <v>6807.59</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="16">
-        <v>6907.7</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="16">
-        <v>7007.81</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="16">
-        <v>7107.92</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="16">
-        <v>7208.03</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3686,8 +2964,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD73"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6080,7 +5358,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="191">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -2835,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2888,69 +2888,36 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>66</v>
+      <c r="A2" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="16">
-        <v>6907.7</v>
+        <v>91</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="6">
+        <v>8809.78999999999</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>85</v>
+        <v>184</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="16">
-        <v>7007.81</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5325,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="282">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -486,26 +486,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>chan p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理部门</t>
-    <rPh sb="0" eb="1">
-      <t>guan li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部门</t>
-    <rPh sb="0" eb="1">
-      <t>xiao sh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu men</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2451,6 +2431,396 @@
     <rPh sb="3" eb="4">
       <t>fei</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理部</t>
+    <rPh sb="0" eb="1">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部</t>
+    <rPh sb="0" eb="1">
+      <t>xiao sh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部</t>
+    <rPh sb="0" eb="1">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5305.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5406.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5506.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5606.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5706.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5806.49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5906.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6006.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6106.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6206.93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6307.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6407.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6507.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6607.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6707.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6807.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6907.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7007.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7107.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7208.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7308.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7408.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7508.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7608.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7708.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7808.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7908.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8008.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8109.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8209.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8309.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8409.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8609.57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8509.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8709.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8809.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8909.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9010.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1501.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1601.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1701.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1802.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1902.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2102.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2202.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2302.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2402.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2502.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2602.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2703.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2803.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2903.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3103.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3203.63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3303.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3403.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3503.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3604.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3704.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3904.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3804.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4104.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4204.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4304.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4404.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4505.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4605.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4705.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4805.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4905.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5005.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5105.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5205.83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2458,9 +2828,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2540,7 +2907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2557,10 +2924,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2837,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2889,35 +3255,35 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" s="6">
         <v>8809.78999999999</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2931,8 +3297,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2970,7 +3336,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2988,30 +3354,30 @@
         <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="16">
-        <v>100.22</v>
+      <c r="H2" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3019,30 +3385,30 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="16">
-        <v>200.33</v>
+      <c r="H3" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3050,30 +3416,30 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="16">
-        <v>300.44</v>
+      <c r="H4" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3088,23 +3454,23 @@
         <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="16">
-        <v>400.55</v>
+      <c r="H5" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3112,30 +3478,30 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="16">
-        <v>500.66</v>
+      <c r="H6" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3150,23 +3516,23 @@
         <v>25</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="16">
-        <v>600.77</v>
+      <c r="H7" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3174,30 +3540,30 @@
         <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="16">
-        <v>700.88</v>
+      <c r="H8" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3212,23 +3578,23 @@
         <v>27</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="16">
-        <v>800.99</v>
+      <c r="H9" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3236,30 +3602,30 @@
         <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="16">
-        <v>901.1</v>
+      <c r="H10" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3274,23 +3640,23 @@
         <v>29</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="16">
-        <v>1001.21</v>
+      <c r="H11" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3298,30 +3664,30 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="16">
-        <v>1101.32</v>
+      <c r="H12" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3333,26 +3699,26 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="16">
-        <v>1201.43</v>
+      <c r="H13" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3360,30 +3726,30 @@
         <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="16">
-        <v>1301.54</v>
+      <c r="H14" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3398,23 +3764,23 @@
         <v>32</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="16">
-        <v>1401.65</v>
+      <c r="H15" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3422,30 +3788,30 @@
         <v>18</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="16">
-        <v>1501.76</v>
+      <c r="H16" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3460,23 +3826,23 @@
         <v>34</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="16">
-        <v>1601.87</v>
+      <c r="H17" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3484,30 +3850,30 @@
         <v>18</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="16">
-        <v>1701.98</v>
+      <c r="H18" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3522,23 +3888,23 @@
         <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="16">
-        <v>1802.09</v>
+      <c r="H19" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3546,30 +3912,30 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="16">
-        <v>1902.2</v>
+      <c r="H20" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3584,23 +3950,23 @@
         <v>38</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="16">
-        <v>2002.31</v>
+      <c r="H21" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3608,30 +3974,30 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="16">
-        <v>2102.42</v>
+      <c r="H22" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3646,23 +4012,23 @@
         <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="16">
-        <v>2202.5300000000002</v>
+      <c r="H23" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3670,30 +4036,30 @@
         <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="16">
-        <v>2302.64</v>
+      <c r="H24" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3708,23 +4074,23 @@
         <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="16">
-        <v>2402.75</v>
+      <c r="H25" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3732,30 +4098,30 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="16">
-        <v>2502.86</v>
+      <c r="H26" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3770,23 +4136,23 @@
         <v>44</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="16">
-        <v>2602.9699999999998</v>
+      <c r="H27" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3794,30 +4160,30 @@
         <v>18</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="16">
-        <v>2703.08</v>
+      <c r="H28" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3832,23 +4198,23 @@
         <v>46</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="16">
-        <v>2803.19</v>
+      <c r="H29" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3856,30 +4222,30 @@
         <v>18</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="16">
-        <v>2903.3</v>
+      <c r="H30" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3894,23 +4260,23 @@
         <v>48</v>
       </c>
       <c r="E31" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="16">
-        <v>3003.41</v>
+      <c r="H31" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3918,30 +4284,30 @@
         <v>18</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="16">
-        <v>3103.52</v>
+      <c r="H32" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3956,23 +4322,23 @@
         <v>49</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="16">
-        <v>3203.63</v>
+      <c r="H33" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -3980,30 +4346,30 @@
         <v>18</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="16">
-        <v>3303.74</v>
+      <c r="H34" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4018,23 +4384,23 @@
         <v>51</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="16">
-        <v>3403.85</v>
+      <c r="H35" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4042,30 +4408,30 @@
         <v>18</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="16">
-        <v>3503.96</v>
+      <c r="H36" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4080,23 +4446,23 @@
         <v>53</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="16">
-        <v>3604.07</v>
+      <c r="H37" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4104,30 +4470,30 @@
         <v>18</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="16">
-        <v>3704.18</v>
+      <c r="H38" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4141,24 +4507,24 @@
       <c r="D39" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>58</v>
+      <c r="E39" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="16">
-        <v>3804.29</v>
+      <c r="H39" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,35 +4532,35 @@
         <v>18</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>57</v>
+      <c r="E40" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="16">
-        <v>3904.4</v>
+      <c r="H40" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>19</v>
@@ -4204,63 +4570,63 @@
         <v>20</v>
       </c>
       <c r="E41" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="16">
-        <v>4004.51</v>
+      <c r="H41" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="16">
-        <v>4104.62</v>
+      <c r="H42" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>19</v>
@@ -4270,63 +4636,63 @@
         <v>23</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="16">
-        <v>4204.7299999999996</v>
+        <v>67</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G44" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="16">
-        <v>4304.84</v>
+        <v>68</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>19</v>
@@ -4336,63 +4702,63 @@
         <v>25</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="16">
-        <v>4404.95</v>
+        <v>69</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G46" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="16">
-        <v>4505.0600000000004</v>
+        <v>70</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>19</v>
@@ -4402,63 +4768,63 @@
         <v>27</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="16">
-        <v>4605.17</v>
+        <v>71</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G48" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="16">
-        <v>4705.28</v>
+        <v>72</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>19</v>
@@ -4468,129 +4834,129 @@
         <v>29</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="16">
-        <v>4805.3900000000003</v>
+        <v>73</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="16">
-        <v>4905.5</v>
+      <c r="H50" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" s="16">
-        <v>5005.6099999999997</v>
+        <v>187</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="16">
-        <v>5105.72</v>
+      <c r="H52" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>19</v>
@@ -4600,63 +4966,63 @@
         <v>32</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="16">
-        <v>5205.83</v>
+        <v>69</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54" s="16">
-        <v>5305.94</v>
+        <v>71</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>19</v>
@@ -4666,63 +5032,63 @@
         <v>34</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="16">
-        <v>5406.05</v>
+        <v>75</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="16">
-        <v>5506.16</v>
+      <c r="H56" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>19</v>
@@ -4732,63 +5098,63 @@
         <v>36</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="16">
-        <v>5606.27</v>
+        <v>68</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="16">
-        <v>5706.38</v>
+        <v>69</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>19</v>
@@ -4798,63 +5164,63 @@
         <v>38</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="16">
-        <v>5806.49</v>
+        <v>77</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" s="16">
-        <v>5906.6</v>
+      <c r="H60" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>19</v>
@@ -4864,63 +5230,63 @@
         <v>40</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H61" s="16">
-        <v>6006.71</v>
+      <c r="H61" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G62" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="16">
-        <v>6106.82</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="K62" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>19</v>
@@ -4930,63 +5296,63 @@
         <v>42</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="16">
-        <v>6206.93</v>
+      <c r="H63" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="16">
-        <v>6307.04</v>
+      <c r="H64" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>19</v>
@@ -4996,63 +5362,63 @@
         <v>44</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H65" s="16">
-        <v>6407.15</v>
+      <c r="H65" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H66" s="16">
-        <v>6507.26</v>
+        <v>67</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>19</v>
@@ -5062,63 +5428,63 @@
         <v>46</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H67" s="16">
-        <v>6607.37</v>
+        <v>68</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G68" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H68" s="16">
-        <v>6707.48</v>
+        <v>69</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>19</v>
@@ -5128,63 +5494,63 @@
         <v>48</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H69" s="16">
-        <v>6807.59</v>
+        <v>70</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E70" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G70" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" s="16">
-        <v>6907.7</v>
+        <v>71</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>19</v>
@@ -5194,63 +5560,63 @@
         <v>49</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H71" s="16">
-        <v>7007.81</v>
+        <v>72</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E72" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G72" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H72" s="16">
-        <v>7107.92</v>
+        <v>73</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>19</v>
@@ -5260,25 +5626,25 @@
         <v>56</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H73" s="16">
-        <v>7208.03</v>
+      <c r="H73" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5324,8 +5690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5381,32 +5747,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="6">
-        <v>7308.14</v>
+        <v>91</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5414,32 +5780,32 @@
         <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="6">
-        <v>7408.25</v>
+      <c r="H3" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5447,32 +5813,32 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="6">
-        <v>7508.36</v>
+        <v>93</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5480,32 +5846,32 @@
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="6">
-        <v>7608.47</v>
+        <v>94</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5513,32 +5879,32 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="6">
-        <v>7708.58</v>
+        <v>95</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5546,428 +5912,428 @@
         <v>18</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="6">
-        <v>7808.69</v>
+        <v>96</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="6">
-        <v>7908.8</v>
+        <v>91</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="6">
-        <v>8008.91</v>
+      <c r="H9" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="6">
-        <v>8109.02</v>
+        <v>93</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="6">
-        <v>8209.1299999999992</v>
+        <v>94</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="6">
-        <v>8309.24</v>
+        <v>95</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="6">
-        <v>8409.35</v>
+        <v>96</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="6">
-        <v>8509.4599999999991</v>
+        <v>91</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="6">
-        <v>8609.57</v>
+      <c r="H15" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="6">
-        <v>8709.6799999999894</v>
+        <v>93</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="6">
-        <v>8809.78999999999</v>
+        <v>94</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="6">
-        <v>8909.8999999999905</v>
+        <v>95</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="6">
-        <v>9010.0099999999893</v>
+        <v>96</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_invoice_data.xlsx
+++ b/test_data/cai/record_invoice_data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="test" sheetId="3" r:id="rId1"/>
     <sheet name="记所有类别的收票" sheetId="1" r:id="rId2"/>
     <sheet name="记所有类别的开票" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -3297,8 +3298,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6340,4 +6341,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>